--- a/biology/Médecine/Alfred_Lubelski/Alfred_Lubelski.xlsx
+++ b/biology/Médecine/Alfred_Lubelski/Alfred_Lubelski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Lubelski, né le 19 mai 1880 à Varsovie et mort le 11 janvier 1923 dans le 15e arrondissement de Paris est un médecin, compositeur, artiste de cabaret et chanteur polonais.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Henry et Francoise Solcberg[1]. Il est le frère ainé de l'illustre sculpteur polonais, Mieczysław Lubelski.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Henry et Francoise Solcberg. Il est le frère ainé de l'illustre sculpteur polonais, Mieczysław Lubelski.
 Il étudie la médecine à Berlin et à Paris et se spécialise en dermatologie.
 En 1908, de retour à Varsovie, il s'engage dans une troupe théâtre pour laquelle il sera le chef d'orchestre. Il travaille ainsi en 1910 avec Arnold Szyfman.
 Il est parmi des chanteurs les plus en vogue à Varsovie au début du XXe siècle.
